--- a/v1.0/v1.1/eval_result.xlsx
+++ b/v1.0/v1.1/eval_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAG-Powered-Customer-Support-for-E-commerce\v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAG-Powered-Customer-Support-for-E-commerce\v1.0\v1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34687E5F-7422-4077-A7C9-E04850965A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6287C-01F0-42AC-BFB3-9F991C549732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>context_rel</t>
   </si>
@@ -39,26 +39,38 @@
     <t>faithfulness(actual_out = retrived_ctx)</t>
   </si>
   <si>
-    <t>retrived context more than relevant 3 sentence is more than expected answer</t>
-  </si>
-  <si>
-    <t>retrived context fail to get relevant context</t>
-  </si>
-  <si>
     <t>passed</t>
   </si>
   <si>
-    <t>not correct context</t>
-  </si>
-  <si>
-    <t># correct the error of more context retrival by narrow the window 9/20</t>
+    <t>window = 2 top_k = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not relevant context </t>
+  </si>
+  <si>
+    <t>not relevant context (not found correct sentence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially relevant context </t>
+  </si>
+  <si>
+    <t>partially relevant context / more context make llm wrong</t>
+  </si>
+  <si>
+    <t>llm can not find the relevant information by retrived context</t>
+  </si>
+  <si>
+    <t>not correct context = 9/11</t>
+  </si>
+  <si>
+    <t>not based on provided context = 2/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +78,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,22 +402,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -402,10 +438,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -413,10 +446,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -424,10 +454,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.83</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -435,21 +462,15 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -457,10 +478,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -468,13 +486,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -482,16 +494,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -499,13 +511,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -513,12 +522,9 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -527,23 +533,17 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -551,13 +551,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -565,13 +559,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>0.23</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -579,93 +567,141 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="B19">
+        <v>-0.5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -676,51 +712,93 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -730,17 +808,23 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <f>SUM(B2:B44)</f>
-        <v>7.3</v>
+        <v>-9.5</v>
       </c>
       <c r="C45">
         <f>SUM(C2:C44)</f>
-        <v>7.7600000000000007</v>
+        <v>-1</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>